--- a/guesstlist.xlsx
+++ b/guesstlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>firstName</t>
+          <t>names</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lastNames</t>
+          <t>address</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>waNumber</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>waNumber</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>nRSVP</t>
         </is>
@@ -463,2500 +458,2000 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Frank Smith</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Jl. N 3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jl. I 41</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+6288969973733</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
+          <t>+6285131839229</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Victor Lewis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Jl. N 78</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jl. U 22</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+6282416271183</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
+          <t>+6284394399748</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sally</t>
+          <t>Yvonne Hernandez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Jl. A 95</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jl. Q 81</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+6285362393719</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+          <t>+6285873213361</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Ivan Clark</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jl. D 40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jl. R 47</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+6281537483387</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
+          <t>+6289555965277</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sally</t>
+          <t>Quincy Young</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Jl. U 12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jl. O 88</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>+6287224242778</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+          <t>+6289789426381</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael Harris</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jl. U 7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jl. B 44</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>+6281767729855</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
+          <t>+6289358911998</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yvonne</t>
+          <t>John Hall</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jl. F 85</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jl. T 3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>+6287235272362</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
+          <t>+6289532925342</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Zach Martinez</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jl. J 42</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jl. J 57</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>+6284366185554</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+          <t>+6284348785449</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Zach Young</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Jl. G 77</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jl. N 24</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>+6281266325156</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+          <t>+6285198762748</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Kevin Jackson</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Jl. T 53</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jl. M 97</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>+6288125148961</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+          <t>+6285438373868</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ursula</t>
+          <t>Michael Davis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Jl. U 25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Jl. G 62</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>+6285444917265</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+          <t>+6288815175587</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Tom Robinson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jl. R 33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jl. H 34</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>+6282127399765</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+          <t>+6289665545922</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Randy</t>
+          <t>Wendy Young</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Jl. X 44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jl. V 79</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>+6285429883786</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
+          <t>+6288559483839</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Alice Moore</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jl. B 11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jl. K 16</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>+6288785187832</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
+          <t>+6289893736548</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Victor King</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Jl. C 36</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jl. U 97</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>+6283944215688</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
+          <t>+6288855445676</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Yvonne Smith</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jl. M 97</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jl. Z 28</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>+6288974391459</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+          <t>+6282314235583</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sally</t>
+          <t>Judy Thompson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Jl. N 14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jl. W 24</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>+6284457323973</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+          <t>+6284148883943</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Nancy Johnson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Jl. H 32</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jl. H 6</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>+6287548462844</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+          <t>+6284389466735</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Charlie Smith</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Jl. H 93</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Jl. N 80</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>+6282619355751</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+          <t>+6282678342973</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>Zach White</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Jl. I 62</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jl. Z 34</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>+6281491221868</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+          <t>+6281214255734</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Randy</t>
+          <t>Kevin Robinson</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Jl. I 68</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jl. E 77</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>+6285615294994</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+          <t>+6289364344172</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ursula</t>
+          <t>Ivan Williams</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Jl. J 54</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jl. N 51</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>+6289557434982</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>4</v>
+          <t>+6288617521512</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Xavier Thompson</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Jl. Q 11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jl. C 76</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>+6281627452524</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
+          <t>+6288627854987</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Linda Jackson</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Jl. C 69</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Jl. U 13</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>+6283813317273</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+          <t>+6289291298159</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Nancy Young</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jl. U 3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Jl. X 55</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>+6282989557792</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>4</v>
+          <t>+6283661953529</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Judy</t>
+          <t>Heidi Lee</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Jl. M 26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jl. H 18</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>+6282538649199</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>3</v>
+          <t>+6286437427485</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Grace Thompson</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Jl. L 23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jl. P 69</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>+6282415414277</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+          <t>+6287995448844</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Victor Jones</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Jl. K 78</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jl. W 14</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>+6289943171351</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
+          <t>+6281822174924</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>Linda Thompson</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Jl. T 65</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Jl. W 82</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>+6288381935398</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>4</v>
+          <t>+6285887786838</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Randy</t>
+          <t>Bob Allen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Jl. D 67</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Jl. O 10</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>+6288691577915</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
+          <t>+6289688226245</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Zach Lee</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Jl. Q 55</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jl. W 3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>+6284381691392</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>2</v>
+          <t>+6288916337424</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Oscar Brown</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Jl. W 20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jl. G 96</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>+6284458798353</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>2</v>
+          <t>+6281227254652</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ursula</t>
+          <t>Kevin Jackson</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jl. T 13</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jl. Q 6</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>+6285513691864</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
+          <t>+6281439364342</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Zach Martinez</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jl. N 89</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jl. N 66</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>+6289666223126</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
+          <t>+6282294712948</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ursula</t>
+          <t>Randy King</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jl. M 27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jl. E 54</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>+6283596215156</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
+          <t>+6281756681576</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>Nancy Young</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jl. P 61</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jl. A 91</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>+6287576521271</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>4</v>
+          <t>+6288672872695</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael Allen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jl. F 33</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jl. E 97</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>+6288374955472</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>4</v>
+          <t>+6283362972192</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Alice King</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jl. A 57</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jl. W 27</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>+6281444865185</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>3</v>
+          <t>+6283911918297</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Charlie Garcia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Jl. N 90</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jl. H 52</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>+6287141637994</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>2</v>
+          <t>+6282472638236</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Alice Brown</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Jl. R 45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jl. U 100</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>+6289541928851</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>4</v>
+          <t>+6281277759487</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Charlie Johnson</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Jl. Z 20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jl. E 64</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>+6284144583757</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>2</v>
+          <t>+6288161322241</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Kevin Smith</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Jl. T 61</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Jl. C 45</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>+6284898396758</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+          <t>+6283722633315</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>David Jackson</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jl. L 58</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Jl. E 84</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>+6289996351274</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
+          <t>+6281277171425</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Ursula Jackson</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Jl. B 93</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jl. M 100</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>+6287873616622</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
+          <t>+6281411769155</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Doe Jones</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jl. I 96</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Jl. P 99</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>+6285944161639</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
+          <t>+6283474216266</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Linda Thomas</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Jl. T 17</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Jl. G 86</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>+6281751233754</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
+          <t>+6289314523785</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Eve White</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jl. H 65</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Jl. U 51</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>+6285555184113</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
+          <t>+6281771757852</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Yvonne</t>
+          <t>Tom Jones</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Jl. J 9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Jl. C 99</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>+6289296447138</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
+          <t>+6287522264178</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Judy Martin</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Jl. F 43</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Jl. X 64</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>+6285727788663</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>2</v>
+          <t>+6285267795636</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Tom Lee</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Jl. U 90</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Jl. F 67</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>+6283712496976</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
+          <t>+6285859557339</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Wendy Garcia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Jl. X 21</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jl. T 51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>+6283881612811</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>2</v>
+          <t>+6285483282289</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Grace</t>
+          <t>Sally Brown</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jl. Q 87</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jl. M 81</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>+6286656122332</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
+          <t>+6283852874956</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Nancy Brown</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Robinson</t>
+          <t>Jl. V 82</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jl. I 43</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>+6283781129278</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
+          <t>+6286155492925</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Pamela Harris</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Allen</t>
+          <t>Jl. P 59</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Jl. J 58</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>+6283954763963</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
+          <t>+6286643568425</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Kevin Hernandez</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jl. N 99</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Jl. M 89</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>+6284912735183</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
+          <t>+6289852575117</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sally</t>
+          <t>Charlie Thompson</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jl. N 37</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Jl. N 82</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>+6288826459512</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>4</v>
+          <t>+6284334485591</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Heidi Garcia</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jl. T 85</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jl. J 80</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>+6285413443832</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>2</v>
+          <t>+6288225625257</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Charlie Davis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Jl. A 10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Jl. O 43</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>+6287762313249</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>4</v>
+          <t>+6281213818227</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tom</t>
+          <t>Grace Davis</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jl. M 33</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jl. G 50</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>+6289754382721</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>3</v>
+          <t>+6287933554729</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Quincy Martin</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Jl. Z 5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jl. E 51</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>+6288867837549</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+          <t>+6282974126514</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Charlie Hall</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Jl. N 91</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Jl. N 76</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>+6286869698898</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
+          <t>+6283783646168</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Pamela White</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Jl. C 6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Jl. R 100</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>+6284959258956</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
+          <t>+6286827882928</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Quincy Walker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Jl. R 81</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jl. M 11</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>+6284843871989</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>4</v>
+          <t>+6284794618325</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jl. G 82</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Jl. J 8</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>+6282957831231</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>4</v>
+          <t>+6289287826149</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Victor White</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Jl. U 29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jl. C 100</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>+6287914777661</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
+          <t>+6282356231584</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Randy</t>
+          <t>Victor Brown</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Jl. M 70</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jl. M 71</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>+6286582991345</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
+          <t>+6289448952487</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Judy White</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Jl. O 52</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jl. Z 83</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>+6289489217941</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
+          <t>+6285711659185</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Nancy Young</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Jl. G 98</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jl. J 35</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>+6281834294321</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>2</v>
+          <t>+6284383563412</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Oscar Williams</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jl. U 18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jl. B 8</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>+6284371756688</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>4</v>
+          <t>+6284718242312</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>Kevin Taylor</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Jl. T 59</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Jl. U 62</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>+6287372793544</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>4</v>
+          <t>+6289832117957</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Pamela Martinez</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Jl. U 99</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Jl. J 22</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>+6289391432585</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
+          <t>+6289664459546</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Sally Young</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Jl. F 71</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Jl. C 69</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>+6289446455775</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>4</v>
+          <t>+6281145851827</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Doe Miller</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Robinson</t>
+          <t>Jl. L 95</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Jl. G 77</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>+6287481394528</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>4</v>
+          <t>+6289278345146</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Charlie Martinez</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Jl. Y 81</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Jl. Q 64</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>+6281652568945</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
+          <t>+6281564786437</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Yvonne Thomas</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Jl. Y 28</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Jl. V 30</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>+6286935472131</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>2</v>
+          <t>+6285987643542</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Quincy Jackson</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jl. H 70</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Jl. R 46</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>+6285346321599</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
+          <t>+6281426749321</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Alice Taylor</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Jl. M 95</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jl. E 40</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>+6285125487452</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
+          <t>+6289962474758</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Frank</t>
+          <t>Frank Miller</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Jl. O 85</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Jl. X 42</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>+6286583136286</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>2</v>
+          <t>+6288925499718</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Alice Jackson</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Jl. B 86</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Jl. I 19</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>+6288973292279</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>2</v>
+          <t>+6282513876152</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Judy Clark</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Jl. H 15</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Jl. X 62</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>+6289816889468</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
+          <t>+6286512237727</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Yvonne White</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Jl. X 95</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Jl. K 66</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>+6288277388376</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
+          <t>+6286417523566</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Kevin Thomas</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jl. E 10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Jl. H 23</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>+6283896414657</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
+          <t>+6281818431897</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Xavier Martinez</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jl. V 83</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Jl. A 36</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>+6287157418734</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
+          <t>+6282353455666</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Heidi Martin</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lee</t>
+          <t>Jl. A 17</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jl. L 8</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>+6284175151692</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
+          <t>+6281145455485</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ursula</t>
+          <t>Linda Hernandez</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Jl. Z 56</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Jl. R 47</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>+6286281666372</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
+          <t>+6289141188339</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Michael Wilson</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Jl. I 85</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jl. A 99</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>+6285175133191</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
+          <t>+6281297796511</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Xavier Smith</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Clark</t>
+          <t>Jl. A 16</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jl. M 47</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>+6284924487883</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
+          <t>+6281931235927</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Kevin Thompson</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anderson</t>
+          <t>Jl. F 16</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Jl. M 63</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>+6289874863911</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>2</v>
+          <t>+6286119761336</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Ursula Walker</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Jl. I 83</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Jl. P 78</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>+6285553963287</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
+          <t>+6283837325836</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Nancy Martinez</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Jl. S 64</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Jl. F 1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>+6281846464894</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>2</v>
+          <t>+6284838666637</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Eve</t>
+          <t>Michael Miller</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jl. E 99</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Jl. E 86</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>+6289639375973</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
+          <t>+6288519454625</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Yvonne</t>
+          <t>Frank Moore</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jl. B 62</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Jl. Y 48</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>+6288724535296</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
+          <t>+6284526353583</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Nancy Moore</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Jl. E 15</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jl. H 18</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>+6287932871595</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
+          <t>+6289463541418</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Zach Anderson</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Jl. S 86</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Jl. X 11</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>+6283872535567</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
+          <t>+6289573773569</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Zach</t>
+          <t>Jane Thomas</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lewis</t>
+          <t>Jl. H 26</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Jl. P 66</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>+6281444566986</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
+          <t>+6281578123953</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Alice Williams</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>King</t>
+          <t>Jl. Q 93</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Jl. O 52</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>+6282488883649</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
+          <t>+6287194196367</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Alice White</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Walker</t>
+          <t>Jl. V 95</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Jl. P 84</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>+6288493928978</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>4</v>
+          <t>+6289243193237</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Xavier</t>
+          <t>Grace Martinez</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Jl. P 41</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Jl. M 24</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>+6287211591471</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
+          <t>+6282857782156</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>John Lewis</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Jl. Z 20</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Jl. K 42</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>+6286745681696</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>4</v>
+          <t>+6282258644532</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Ursula Anderson</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wilson</t>
+          <t>Jl. V 84</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Jl. M 19</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>+6283718938667</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
+          <t>+6288857764356</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
         <v>2</v>
       </c>
     </row>
